--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_5_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_5_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.34000000000037</v>
+        <v>24.26000000000035</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.663255467603231e-16</v>
+        <v>1.531342102931251e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>50.25333842112069</v>
+        <v>50.22414245239935</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.895478590154255, 55.61119825208712]</t>
+          <t>[44.959762059781056, 55.48852284501764]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.654131867655887</v>
+        <v>1.478026573760964</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.540921321580579, 1.7673424137311953]</t>
+          <t>[1.3648160276856558, 1.591237119836272]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>54.77782707729457</v>
+        <v>58.45073679990821</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[51.36728299807298, 58.188371156516155]</t>
+          <t>[55.03996062791778, 61.86151297189865]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.93217217217244</v>
+        <v>18.55319319319347</v>
       </c>
       <c r="X2" t="n">
-        <v>17.49361361361388</v>
+        <v>18.11607607607634</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.37073073073101</v>
+        <v>18.99031031031059</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.41000000000053</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.663255467603231e-16</v>
+        <v>1.531342102931251e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>54.14166832919305</v>
+        <v>55.33006606541628</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[46.25724548736046, 62.026091171025634]</t>
+          <t>[49.92949632555175, 60.73063580528081]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.364842518017542</v>
+        <v>-3.107000542289005</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-2.5157899127846193, -2.213895123250465]</t>
+          <t>[-3.2076321388003888, -3.0063689457776204]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>59.69637617654085</v>
+        <v>58.44647473511552</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.55295938252753, 63.83979297055417]</t>
+          <t>[54.76153271128146, 62.131416758949584]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>9.563723723723927</v>
+        <v>12.43653653653678</v>
       </c>
       <c r="X3" t="n">
-        <v>8.953273273273464</v>
+        <v>12.03373373373397</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.17417417417439</v>
+        <v>12.83933933933959</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_5_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_5_square_05_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>24.26000000000035</v>
+        <v>24.29000000000036</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.531342102931251e-16</v>
+        <v>1.600321476937163e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>50.22414245239935</v>
+        <v>53.87472459314032</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[44.959762059781056, 55.48852284501764]</t>
+          <t>[48.30402775443505, 59.445421431845595]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.478026573760964</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.3648160276856558, 1.591237119836272]</t>
+          <t>[1.490605523324887, 1.7170266154755032]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.45073679990821</v>
+        <v>60.19298150464736</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[55.03996062791778, 61.86151297189865]</t>
+          <t>[56.5035540404629, 63.882408968831825]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>18.55319319319347</v>
+        <v>18.08984984985011</v>
       </c>
       <c r="X2" t="n">
-        <v>18.11607607607634</v>
+        <v>17.65219219219245</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.99031031031059</v>
+        <v>18.52750750750778</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.15000000000049</v>
+        <v>25.35000000000052</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.531342102931251e-16</v>
+        <v>1.600321476937163e-16</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>55.33006606541628</v>
+        <v>53.02931722322822</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[49.92949632555175, 60.73063580528081]</t>
+          <t>[45.886943470167594, 60.17169097628884]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-3.107000542289005</v>
+        <v>-2.515789912784619</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.2076321388003888, -3.0063689457776204]</t>
+          <t>[-2.6541583579877734, -2.377421467581464]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>58.44647473511552</v>
+        <v>56.45797805089713</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[54.76153271128146, 62.131416758949584]</t>
+          <t>[52.74666957595189, 60.16928652584236]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.43653653653678</v>
+        <v>10.15015015015036</v>
       </c>
       <c r="X3" t="n">
-        <v>12.03373373373397</v>
+        <v>9.591891891892086</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.83933933933959</v>
+        <v>10.70840840840863</v>
       </c>
     </row>
   </sheetData>
